--- a/src/Weather_Edit_2017-Present.xlsx
+++ b/src/Weather_Edit_2017-Present.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandriapawlik/Documents/Research/EDI/UMBS_Weather_Data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandriapawlik/Documents/Research/EDI/UMBS_Weather_Data/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C71AA5-2AD2-9E4E-AD39-442EA2E7A1F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B76B746-CD78-ED41-B501-6D72B906E85C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="27660" windowHeight="17540" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="27660" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May20" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="411">
   <si>
     <t>Date</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Wind = 3.</t>
-  </si>
-  <si>
-    <t>Wind = 3. NW.</t>
   </si>
   <si>
     <t>Wind = 3. NW. Heavy, wet snow. High winds. Snow drifting. ~1" total after snowfall event at 12:30.</t>
@@ -393,9 +390,6 @@
     <t>Wind 0.Light snow.</t>
   </si>
   <si>
-    <t>Wind 0. Light rain.</t>
-  </si>
-  <si>
     <t>Wind 2. Drifted snow.</t>
   </si>
   <si>
@@ -450,16 +444,7 @@
     <t>Ice in!</t>
   </si>
   <si>
-    <t>Wind 0. Some light rain in afternoon.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wind 0. </t>
-  </si>
-  <si>
-    <t>Ice out.</t>
-  </si>
-  <si>
-    <t>Wind 1</t>
   </si>
   <si>
     <t>Wind 2</t>
@@ -492,19 +477,10 @@
     <t>Wind = 3. NW. Snowing. High winds.</t>
   </si>
   <si>
-    <t>Drifted snow. No snow on daily snow board. Snow estimated from snow in roads.</t>
-  </si>
-  <si>
     <t>Ci</t>
   </si>
   <si>
-    <t>Rain overnight. Patchy ice on ground in morning. Buoy out at 3:40.</t>
-  </si>
-  <si>
     <t>Put away evap pan.</t>
-  </si>
-  <si>
-    <t>Rain overnight and in AM.</t>
   </si>
   <si>
     <t>Frost. Fog.</t>
@@ -519,13 +495,7 @@
     <t>Raised water in evap pan to 2.80</t>
   </si>
   <si>
-    <t>Raining in AM. Evap data collected at 14:00, after morning rain had ceased and Belford gage data were collected.</t>
-  </si>
-  <si>
     <t>Rain over night.</t>
-  </si>
-  <si>
-    <t>Light rain, high wind in evening</t>
   </si>
   <si>
     <t xml:space="preserve">Fog, scattered rain drops in morning </t>
@@ -535,9 +505,6 @@
   </si>
   <si>
     <t>Fog</t>
-  </si>
-  <si>
-    <t>Raised water in evap pan to 2.51</t>
   </si>
   <si>
     <t>Rain in AM. T-storms overnight .</t>
@@ -550,9 +517,6 @@
   </si>
   <si>
     <t>Raised evap pan to 3.62</t>
-  </si>
-  <si>
-    <t>Lotsa rain in last 24 hrs+</t>
   </si>
   <si>
     <t>Rain overnight. Evap pan lowered to 3.15</t>
@@ -642,9 +606,6 @@
     <t>Light wind.</t>
   </si>
   <si>
-    <t>Calm. Hoar frost.</t>
-  </si>
-  <si>
     <t>Calm. Light rain, mist.</t>
   </si>
   <si>
@@ -670,9 +631,6 @@
   </si>
   <si>
     <t>Moderate breeze. Very light snow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily snowfall not observed 2/6-2/10. A total accumulation of 2.25 was observed on 2/11. Daily snowfall amounts for 2/6-2/11 calculated from precipitation record. </t>
   </si>
   <si>
     <t>Ns</t>
@@ -744,9 +702,6 @@
     <t>Calm. Light air. Patchy snow.</t>
   </si>
   <si>
-    <t>Gentle breeze. Snowing. Snow data cumulative for 1/27-1/28.</t>
-  </si>
-  <si>
     <t>Gentle breeze. Light snow.</t>
   </si>
   <si>
@@ -802,9 +757,6 @@
   </si>
   <si>
     <t>Gentle breeze. Mixed precipitation. Rain turning to snow.</t>
-  </si>
-  <si>
-    <t>Calm. Raining. Fog. 40 degrees on max thermometer at 08:59.</t>
   </si>
   <si>
     <t>Light air. Light snow.</t>
@@ -873,18 +825,6 @@
     <t>Moderate breeze. Open water, ice washed in to shore.</t>
   </si>
   <si>
-    <t>SF Bay iced in by evening.</t>
-  </si>
-  <si>
-    <t>Check to see how UV-B temps compare to camp temps with lake frozen, esp. Fri, Sat.</t>
-  </si>
-  <si>
-    <t>Light breeze. Very light snow.</t>
-  </si>
-  <si>
-    <t>Light air. Occasional snowflake .</t>
-  </si>
-  <si>
     <t>Misty. Lowered evap pan to 2.04</t>
   </si>
   <si>
@@ -913,9 +853,6 @@
   </si>
   <si>
     <t>SSE</t>
-  </si>
-  <si>
-    <t>Frost. Buoy retrieved for season at 14:30.</t>
   </si>
   <si>
     <t>Windy. Waves on lake.</t>
@@ -978,13 +915,7 @@
     <t>Placed iButton at 8:28</t>
   </si>
   <si>
-    <t>Lowered evap pan to 3.00</t>
-  </si>
-  <si>
     <t>SSW</t>
-  </si>
-  <si>
-    <t>Raised evap pan to 1.88</t>
   </si>
   <si>
     <t>Raised evap pan to 3.91</t>
@@ -1003,9 +934,6 @@
   </si>
   <si>
     <t>Buoy not sending data</t>
-  </si>
-  <si>
-    <t>Raised pan to 3.12. iButton read 84.2 for max.</t>
   </si>
   <si>
     <t>raised evap pan to 2.30</t>
@@ -1222,6 +1150,147 @@
   </si>
   <si>
     <t>Lake ice = 16.5"</t>
+  </si>
+  <si>
+    <t>Min temp data from iButton</t>
+  </si>
+  <si>
+    <t>Max temp data from iButton</t>
+  </si>
+  <si>
+    <t>Raised evap pan to 1.88, min and current temp data from iButton</t>
+  </si>
+  <si>
+    <t>Raised pan to 3.12, temp data from iButton</t>
+  </si>
+  <si>
+    <t>Lowered evap pan to 3.00, max temp data from iButton</t>
+  </si>
+  <si>
+    <t>Snowfall records from Pellston Airport, temp data from iButton</t>
+  </si>
+  <si>
+    <t>Snowfall records from Pellston Airport, min and current temp data from iButton</t>
+  </si>
+  <si>
+    <t>Snowfall records from Pellston Airport, max temp data from iButton</t>
+  </si>
+  <si>
+    <t>Frost. Buoy retrieved for season at 14:30. Max temp data from iButton.</t>
+  </si>
+  <si>
+    <t>SF Bay iced in by evening, max temp calculated from UV-B data</t>
+  </si>
+  <si>
+    <t>Max temp calculated from UV-B data</t>
+  </si>
+  <si>
+    <t>Check to see how UV-B temps compare to camp temps with lake frozen, esp. Fri, Sat, min temp calculated from UV-B data</t>
+  </si>
+  <si>
+    <t>Max and min temp calculated from UV-B data</t>
+  </si>
+  <si>
+    <t>Light breeze. Very light snow. Max temp calculated from UV-B data.</t>
+  </si>
+  <si>
+    <t>Light air. Occasional snowflake . Min temp calculated from UV-B data.</t>
+  </si>
+  <si>
+    <t>Calm. Raining. Fog. 40 degrees on max thermometer at 08:59. Temp data from iButton.</t>
+  </si>
+  <si>
+    <t>Min and current temp from iButton</t>
+  </si>
+  <si>
+    <t>Gentle breeze. Snowing. Snow data cumulative for 1/27-1/28. Max temp from iButton.</t>
+  </si>
+  <si>
+    <t>Temp from iButton</t>
+  </si>
+  <si>
+    <t>Max and current temp from iButton</t>
+  </si>
+  <si>
+    <t>Daily snowfall not observed 2/6-2/10. A total accumulation of 2.25 was observed on 2/11. Daily snowfall amounts for 2/6-2/11 calculated from precipitation record. Temp data from iButton</t>
+  </si>
+  <si>
+    <t>Calm. Hoar frost. Temp from iButton</t>
+  </si>
+  <si>
+    <t>Light air. Temp from iButton</t>
+  </si>
+  <si>
+    <t>Current temp from iButton</t>
+  </si>
+  <si>
+    <t>Calm. Min temp from iButton.</t>
+  </si>
+  <si>
+    <t>Calm, temp from iButton</t>
+  </si>
+  <si>
+    <t>Max and min temp from iButton</t>
+  </si>
+  <si>
+    <t>Light air, temp from iButton</t>
+  </si>
+  <si>
+    <t>Max temp from iButton</t>
+  </si>
+  <si>
+    <t>Min temp from iButton</t>
+  </si>
+  <si>
+    <t>Raining, min temp from iButton</t>
+  </si>
+  <si>
+    <t>Raised water in evap pan to 2.80, max and min temp from iButton data</t>
+  </si>
+  <si>
+    <t>Light rain, high wind in evening, max and min temp from iButton</t>
+  </si>
+  <si>
+    <t>Raised water in evap pan to 2.51, max temp from iButton</t>
+  </si>
+  <si>
+    <t>Raining in AM. Evap data collected at 14:00, after morning rain had ceased and Belford gage data were collected. Max and min temp from iButton.</t>
+  </si>
+  <si>
+    <t>Fog, max temp from iButton</t>
+  </si>
+  <si>
+    <t>Fog, max and min temp from iButton</t>
+  </si>
+  <si>
+    <t>Lotsa rain in last 24 hrs+, max temp from iButton</t>
+  </si>
+  <si>
+    <t>Rain overnight. Patchy ice on ground in morning. Buoy out at 3:40. Max and min temp from iButton.</t>
+  </si>
+  <si>
+    <t>Rain overnight and in AM. Max and min temp from iButton.</t>
+  </si>
+  <si>
+    <t>Wind 0. Some light rain in afternoon. Temp from iButton</t>
+  </si>
+  <si>
+    <t>Ice out. Temp from iButton.</t>
+  </si>
+  <si>
+    <t>Wind 1, max temp from iButton</t>
+  </si>
+  <si>
+    <t>Wind 0. Light rain. Min temp from iButton</t>
+  </si>
+  <si>
+    <t>Wind = 0. Max and min temp from iButton.</t>
+  </si>
+  <si>
+    <t>Drifted snow. No snow on daily snow board. Snow estimated from snow in roads. Max and current temp from iButton</t>
+  </si>
+  <si>
+    <t>Wind = 3. NW. Min temp from iButton</t>
   </si>
 </sst>
 </file>
@@ -9684,7 +9753,7 @@
   </sheetPr>
   <dimension ref="A1:Q906"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -9779,7 +9848,7 @@
         <v>714.61</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -9811,7 +9880,7 @@
         <v>714.69</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -9837,10 +9906,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -9869,7 +9938,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -9895,10 +9964,10 @@
         <v>5</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -9924,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -9954,7 +10023,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -9987,10 +10056,10 @@
         <v>4</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -10026,7 +10095,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -10062,7 +10131,7 @@
         <v>23</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -10092,7 +10161,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -10122,7 +10191,7 @@
         <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -10147,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -10178,7 +10247,7 @@
         <v>714.34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -10206,7 +10275,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -10228,7 +10297,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7">
         <v>6</v>
@@ -10293,7 +10362,7 @@
         <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -10324,7 +10393,7 @@
         <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -10333,7 +10402,7 @@
         <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -10370,7 +10439,7 @@
         <v>714.2</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -10468,7 +10537,7 @@
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="11">
         <f>SUM(F2:F30)</f>
@@ -10493,7 +10562,7 @@
     </row>
     <row r="906" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I906" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10509,9 +10578,14 @@
   </sheetPr>
   <dimension ref="A1:Q997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="14" width="3.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -10602,7 +10676,7 @@
         <v>2.72</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -10696,6 +10770,9 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
+      <c r="Q5" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -10736,7 +10813,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -10775,7 +10852,7 @@
         <v>7</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="7">
         <v>1.82</v>
@@ -10823,7 +10900,7 @@
         <v>1.65</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -10862,13 +10939,13 @@
         <v>6</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="7">
         <v>1.67</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -10905,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="7">
         <v>1.44</v>
@@ -10947,7 +11024,7 @@
         <v>713.28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -10988,6 +11065,9 @@
       <c r="O12" s="7">
         <v>2.35</v>
       </c>
+      <c r="Q12" s="7" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -11058,7 +11138,7 @@
         <v>1.92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -11097,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="7">
         <v>1.86</v>
@@ -11190,7 +11270,7 @@
         <v>713.14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -11232,7 +11312,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -11271,13 +11351,13 @@
         <v>2</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="7">
         <v>1.36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -11358,7 +11438,7 @@
         <v>1.03</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -11394,7 +11474,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="7"/>
     </row>
@@ -11607,7 +11687,7 @@
         <v>8</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" s="7">
         <v>2.79</v>
@@ -11644,7 +11724,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" s="7">
         <v>2.65</v>
@@ -11721,6 +11801,9 @@
       <c r="O31" s="7">
         <v>2.63</v>
       </c>
+      <c r="Q31" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -11747,7 +11830,7 @@
     </row>
     <row r="997" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I997" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -11762,9 +11845,17 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -11848,7 +11939,7 @@
         <v>1.01</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>152</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -11926,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O4" s="7">
         <v>3.15</v>
@@ -12027,6 +12118,9 @@
         <v>0</v>
       </c>
       <c r="L7" s="11"/>
+      <c r="Q7" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -12048,6 +12142,9 @@
         <v>0</v>
       </c>
       <c r="L8" s="11"/>
+      <c r="Q8" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -12090,6 +12187,9 @@
       <c r="P9" s="7">
         <v>713.81</v>
       </c>
+      <c r="Q9" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -12150,6 +12250,9 @@
         <v>0</v>
       </c>
       <c r="L11" s="11"/>
+      <c r="Q11" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -12181,7 +12284,7 @@
         <v>7</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O12" s="7">
         <v>2.4500000000000002</v>
@@ -12220,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -12265,6 +12368,9 @@
         <v>0</v>
       </c>
       <c r="L15" s="11"/>
+      <c r="Q15" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -12452,7 +12558,7 @@
         <v>7</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" s="7">
         <v>1.4</v>
@@ -12560,7 +12666,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12674,7 +12780,7 @@
         <v>3.09</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -12716,7 +12822,7 @@
         <v>2.9</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -12752,13 +12858,13 @@
         <v>7</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" s="7">
         <v>3.44</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -12872,7 +12978,7 @@
         <v>5</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O31" s="7">
         <v>3.02</v>
@@ -12934,9 +13040,16 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="13" width="2.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -13020,7 +13133,7 @@
         <v>1.97</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -13052,7 +13165,7 @@
         <v>1.86</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -13084,7 +13197,7 @@
         <v>1.63</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -13116,7 +13229,7 @@
         <v>1.44</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -13148,7 +13261,7 @@
         <v>1.29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -13177,7 +13290,7 @@
         <v>1.21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -13212,7 +13325,7 @@
         <v>714.15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -13237,6 +13350,9 @@
       <c r="K9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -13263,6 +13379,9 @@
       <c r="O10" s="7">
         <v>2.33</v>
       </c>
+      <c r="Q10" s="7" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -13293,7 +13412,7 @@
         <v>3.92</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -13319,13 +13438,13 @@
         <v>1</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O12" s="7">
         <v>3.81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -13348,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7">
         <v>2.2999999999999998</v>
@@ -13387,7 +13506,7 @@
         <v>0.44</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7">
         <v>11.8</v>
@@ -13406,7 +13525,7 @@
         <v>4.05</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -13439,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="P15" s="7">
         <v>714.15</v>
@@ -13713,6 +13832,9 @@
         <v>0</v>
       </c>
       <c r="L23" s="11"/>
+      <c r="Q23" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -13734,6 +13856,9 @@
         <v>0</v>
       </c>
       <c r="L24" s="11"/>
+      <c r="Q24" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -13771,7 +13896,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -13796,7 +13921,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O26" s="7">
         <v>2.21</v>
@@ -13911,6 +14036,9 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
+      <c r="Q30" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -13930,6 +14058,9 @@
       </c>
       <c r="F31" s="7">
         <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -13947,9 +14078,14 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="13" width="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -14046,6 +14182,9 @@
       <c r="F3" s="7">
         <v>0.4</v>
       </c>
+      <c r="Q3" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -14066,6 +14205,9 @@
       <c r="F4" s="7">
         <v>0.02</v>
       </c>
+      <c r="Q4" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -14086,6 +14228,9 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
+      <c r="Q5" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -14106,6 +14251,9 @@
       <c r="F6" s="7">
         <v>0</v>
       </c>
+      <c r="Q6" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -14133,7 +14281,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -14162,7 +14310,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -14191,7 +14339,7 @@
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -14220,7 +14368,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -14249,7 +14397,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -14275,10 +14423,10 @@
         <v>2</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -14307,7 +14455,7 @@
         <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -14336,7 +14484,7 @@
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -14366,7 +14514,7 @@
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -14395,7 +14543,7 @@
         <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -14424,7 +14572,7 @@
         <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -14453,7 +14601,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -14472,6 +14620,9 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
+      <c r="Q19" s="7" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -14499,7 +14650,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -14528,7 +14679,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -14548,6 +14699,9 @@
       <c r="F22" s="7">
         <v>0.08</v>
       </c>
+      <c r="Q22" s="7" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -14575,7 +14729,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -14604,7 +14758,7 @@
         <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -14633,7 +14787,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -14662,7 +14816,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -14691,7 +14845,7 @@
         <v>23</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -14720,7 +14874,7 @@
         <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -14752,7 +14906,7 @@
         <v>714.41</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -14778,10 +14932,10 @@
         <v>3</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -14810,7 +14964,7 @@
         <v>23</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -14842,7 +14996,7 @@
         <v>2.09</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -14857,9 +15011,17 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -14943,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>169</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -14981,7 +15143,7 @@
         <v>714.17</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -15016,7 +15178,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -15048,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -15083,7 +15245,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -15116,7 +15278,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -15151,7 +15313,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -15186,7 +15348,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -15241,6 +15403,9 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
+      <c r="Q11" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -15275,7 +15440,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -15308,7 +15473,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -15373,7 +15538,7 @@
         <v>7</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -15408,7 +15573,7 @@
         <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -15446,7 +15611,7 @@
         <v>714.7</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -15481,7 +15646,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -15516,7 +15681,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -15544,6 +15709,9 @@
       <c r="I20" s="7">
         <v>0</v>
       </c>
+      <c r="Q20" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -15571,6 +15739,9 @@
       <c r="I21" s="7">
         <v>0</v>
       </c>
+      <c r="Q21" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -15597,6 +15768,9 @@
       <c r="I22" s="7">
         <v>0</v>
       </c>
+      <c r="Q22" s="7" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -15634,7 +15808,7 @@
         <v>714.86</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -15669,7 +15843,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -15704,7 +15878,7 @@
         <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -15739,7 +15913,7 @@
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -15795,10 +15969,10 @@
         <v>3</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -15859,7 +16033,7 @@
         <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -15894,7 +16068,7 @@
         <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -15909,9 +16083,14 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="16" width="5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -15986,6 +16165,9 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
+      <c r="Q2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -16010,6 +16192,9 @@
       <c r="I3" s="7">
         <v>30</v>
       </c>
+      <c r="Q3" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -16031,6 +16216,9 @@
       <c r="H4" s="7">
         <v>0.5</v>
       </c>
+      <c r="Q4" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -16052,6 +16240,9 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
+      <c r="Q5" s="38" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -16076,6 +16267,9 @@
       <c r="I6" s="7">
         <v>31</v>
       </c>
+      <c r="Q6" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -16097,6 +16291,9 @@
       <c r="H7" s="7">
         <v>0.5</v>
       </c>
+      <c r="Q7" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -16118,6 +16315,9 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
+      <c r="Q8" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -16139,6 +16339,9 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
+      <c r="Q9" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -16160,6 +16363,9 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
+      <c r="Q10" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -16184,6 +16390,9 @@
       <c r="I11" s="7">
         <v>33.5</v>
       </c>
+      <c r="Q11" s="38" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -16206,6 +16415,9 @@
       <c r="H12" s="7">
         <v>3.5</v>
       </c>
+      <c r="Q12" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -16240,7 +16452,7 @@
         <v>713.95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -16274,7 +16486,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -16307,7 +16519,7 @@
         <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -16340,7 +16552,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -16373,7 +16585,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -16393,6 +16605,9 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
+      <c r="Q18" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -16411,6 +16626,9 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
+      <c r="Q19" s="7" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -16442,7 +16660,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -16479,7 +16697,7 @@
         <v>714</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -16514,7 +16732,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -16579,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -16611,10 +16829,10 @@
         <v>6</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -16646,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -16681,7 +16899,7 @@
         <v>714.06</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -16716,7 +16934,7 @@
         <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -16751,7 +16969,7 @@
         <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -16783,10 +17001,10 @@
         <v>1</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>166</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -16811,6 +17029,9 @@
       <c r="H31" s="7">
         <v>0</v>
       </c>
+      <c r="Q31" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -16833,6 +17054,9 @@
       </c>
       <c r="H32" s="7">
         <v>0</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
@@ -16850,10 +17074,13 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="15" width="5.33203125" customWidth="1"/>
     <col min="17" max="17" width="167.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17015,7 +17242,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -17053,7 +17280,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -17091,7 +17318,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -17126,7 +17353,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -17154,6 +17381,9 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
+      <c r="Q8" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -17180,6 +17410,9 @@
       <c r="H9" s="7">
         <v>1.5</v>
       </c>
+      <c r="Q9" s="7" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -17206,6 +17439,9 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
+      <c r="Q10" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -17232,6 +17468,9 @@
       <c r="H11" s="7">
         <v>0</v>
       </c>
+      <c r="Q11" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -17268,7 +17507,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>204</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -17306,7 +17545,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -17339,10 +17578,10 @@
         <v>8</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -17380,7 +17619,7 @@
         <v>713.97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -17412,10 +17651,10 @@
         <v>8</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -17450,7 +17689,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -17483,7 +17722,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -17518,7 +17757,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -17551,7 +17790,7 @@
         <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -17587,7 +17826,7 @@
         <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -17619,13 +17858,13 @@
         <v>8</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7">
         <v>713.96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -17661,7 +17900,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -17696,7 +17935,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -17731,7 +17970,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -17766,7 +18005,7 @@
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -17801,7 +18040,7 @@
         <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -17836,7 +18075,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -17874,7 +18113,7 @@
         <v>714</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -17924,10 +18163,13 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="15" width="3.83203125" customWidth="1"/>
     <col min="17" max="17" width="167.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18013,10 +18255,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -18051,7 +18293,7 @@
         <v>22</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -18086,7 +18328,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -18121,7 +18363,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -18156,7 +18398,7 @@
         <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -18188,10 +18430,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -18226,7 +18468,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -18264,7 +18506,7 @@
         <v>713.95</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -18299,7 +18541,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -18331,10 +18573,10 @@
         <v>7</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -18370,7 +18612,7 @@
         <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -18399,7 +18641,7 @@
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -18467,7 +18709,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -18502,7 +18744,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -18534,10 +18776,10 @@
         <v>4</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -18575,7 +18817,7 @@
         <v>713.89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -18610,7 +18852,7 @@
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -18643,7 +18885,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -18679,7 +18921,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -18714,7 +18956,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -18753,7 +18995,7 @@
         <v>713.86</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -18788,7 +19030,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -18823,7 +19065,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -18855,10 +19097,10 @@
         <v>7</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -18893,7 +19135,7 @@
         <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -18912,6 +19154,9 @@
       <c r="F28" s="7">
         <v>0.12</v>
       </c>
+      <c r="Q28" s="7" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -18945,7 +19190,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -18978,7 +19223,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -19048,7 +19293,7 @@
         <v>713.9</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -19076,10 +19321,13 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="15" width="4.33203125" customWidth="1"/>
     <col min="17" max="17" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19168,7 +19416,7 @@
         <v>22</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -19203,7 +19451,7 @@
         <v>22</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -19236,7 +19484,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -19277,7 +19525,7 @@
         <v>713.82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -19315,7 +19563,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -19353,7 +19601,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -19391,7 +19639,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -19429,7 +19677,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -19467,7 +19715,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -19505,7 +19753,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -19546,7 +19794,7 @@
         <v>713.82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -19584,7 +19832,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -19622,7 +19870,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -19660,7 +19908,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -19693,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -19731,7 +19979,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -19769,7 +20017,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -19810,7 +20058,7 @@
         <v>713.8</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -19848,7 +20096,7 @@
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -19887,7 +20135,7 @@
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -19925,7 +20173,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -19986,6 +20234,9 @@
       <c r="I24" s="7">
         <v>4.25</v>
       </c>
+      <c r="Q24" s="7" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -20015,6 +20266,9 @@
       <c r="I25" s="7">
         <v>7</v>
       </c>
+      <c r="Q25" s="7" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -20044,6 +20298,9 @@
       <c r="I26" s="7">
         <v>6.5</v>
       </c>
+      <c r="Q26" s="7" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -20073,6 +20330,9 @@
       <c r="I27" s="7">
         <v>6.25</v>
       </c>
+      <c r="Q27" s="7" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -20102,6 +20362,9 @@
       <c r="I28" s="7">
         <v>5.5</v>
       </c>
+      <c r="Q28" s="7" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -20138,7 +20401,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -20176,7 +20439,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -20214,7 +20477,7 @@
         <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -20252,7 +20515,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -20283,12 +20546,16 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20375,10 +20642,10 @@
         <v>6</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -20414,7 +20681,7 @@
         <v>22</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -20452,7 +20719,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -20490,7 +20757,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -20528,7 +20795,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -20595,7 +20862,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -20633,7 +20900,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -20674,7 +20941,7 @@
         <v>713.59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -20709,10 +20976,10 @@
         <v>6</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -20750,7 +21017,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -20788,7 +21055,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -20827,7 +21094,7 @@
         <v>713.72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -20865,7 +21132,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -20903,7 +21170,7 @@
         <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -20941,7 +21208,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -20976,10 +21243,10 @@
         <v>3</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -21015,7 +21282,7 @@
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -21056,7 +21323,7 @@
         <v>713.74</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -21094,7 +21361,7 @@
         <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -21123,7 +21390,7 @@
         <v>7.25</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -21151,7 +21418,7 @@
       </c>
       <c r="L23" s="20"/>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -21177,6 +21444,9 @@
       <c r="I24" s="7">
         <v>5</v>
       </c>
+      <c r="Q24" s="7" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -21202,7 +21472,7 @@
         <v>3.25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -21228,6 +21498,9 @@
       <c r="I26" s="7">
         <v>2.5</v>
       </c>
+      <c r="Q26" s="7" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -21251,6 +21524,9 @@
       <c r="I27" s="7">
         <v>2</v>
       </c>
+      <c r="Q27" s="7" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -21284,7 +21560,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -21322,7 +21598,7 @@
         <v>713.76</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -21357,7 +21633,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -21392,7 +21668,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -21416,7 +21692,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -21433,11 +21709,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="11" max="16" width="3.6640625" customWidth="1"/>
     <col min="17" max="17" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21558,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -21590,7 +21867,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -21653,6 +21930,9 @@
       <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="J6" t="s">
+        <v>281</v>
+      </c>
       <c r="M6" s="7">
         <v>7</v>
       </c>
@@ -21660,7 +21940,7 @@
         <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -21695,7 +21975,7 @@
         <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -21734,7 +22014,7 @@
         <v>714.44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -21770,7 +22050,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -21799,6 +22079,9 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
+      <c r="J10" t="s">
+        <v>290</v>
+      </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
@@ -21806,7 +22089,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -21835,11 +22118,14 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
+      <c r="J11" t="s">
+        <v>281</v>
+      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -21875,7 +22161,7 @@
         <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -21911,7 +22197,7 @@
         <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -21940,6 +22226,9 @@
       <c r="I14" s="7">
         <v>0</v>
       </c>
+      <c r="J14" t="s">
+        <v>162</v>
+      </c>
       <c r="M14" s="7">
         <v>8</v>
       </c>
@@ -21947,7 +22236,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -21980,10 +22269,10 @@
         <v>2</v>
       </c>
       <c r="N15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -22013,7 +22302,7 @@
         <v>1.6</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -22046,13 +22335,13 @@
         <v>2</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7">
         <v>714.34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -22085,7 +22374,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -22118,7 +22407,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -22147,6 +22436,9 @@
       <c r="I20" s="7">
         <v>0</v>
       </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
       <c r="M20" s="7">
         <v>8</v>
       </c>
@@ -22154,7 +22446,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -22190,7 +22482,7 @@
         <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -22219,6 +22511,9 @@
       <c r="I22" s="7">
         <v>0.2</v>
       </c>
+      <c r="J22" t="s">
+        <v>266</v>
+      </c>
       <c r="M22" s="7">
         <v>8</v>
       </c>
@@ -22226,7 +22521,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -22254,6 +22549,9 @@
       <c r="I23" s="7">
         <v>0</v>
       </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
@@ -22261,7 +22559,7 @@
         <v>714.32</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -22291,10 +22589,10 @@
         <v>1</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -22329,7 +22627,7 @@
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -22361,10 +22659,10 @@
         <v>6</v>
       </c>
       <c r="N26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -22392,6 +22690,9 @@
       <c r="I27" s="10">
         <v>0</v>
       </c>
+      <c r="Q27" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -22454,7 +22755,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -22482,6 +22783,9 @@
       <c r="I30" s="10">
         <v>0</v>
       </c>
+      <c r="J30" t="s">
+        <v>252</v>
+      </c>
       <c r="M30" s="7">
         <v>8</v>
       </c>
@@ -22489,7 +22793,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -22517,6 +22821,9 @@
       <c r="I31" s="10">
         <v>0</v>
       </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
       <c r="M31" s="7">
         <v>8</v>
       </c>
@@ -22524,7 +22831,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -22554,7 +22861,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="11">
         <f>SUM(F2:F30)</f>
@@ -22579,7 +22886,7 @@
     </row>
     <row r="906" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I906" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -22596,11 +22903,16 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22642,7 +22954,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -22689,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K2" s="7">
         <v>2.2000000000000002</v>
@@ -22735,7 +23047,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K3" s="7">
         <v>7.4</v>
@@ -22755,7 +23067,7 @@
         <v>4.28</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -22787,7 +23099,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7">
         <v>7.4</v>
@@ -22804,7 +23116,7 @@
         <v>22</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -22836,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7">
         <v>17.8</v>
@@ -22850,13 +23162,13 @@
         <v>4</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" s="7">
         <v>4.87</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -22888,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7">
         <v>2.2999999999999998</v>
@@ -22908,7 +23220,7 @@
         <v>712.98</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -22940,7 +23252,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -22972,7 +23284,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>283</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -23004,7 +23316,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -23033,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -23062,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -23091,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -23120,7 +23432,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -23152,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -23184,7 +23496,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -23213,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -23242,7 +23554,7 @@
         <v>0.25</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -23271,7 +23583,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -23300,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -23332,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -23362,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>283</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -23394,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -23426,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7">
         <v>1.1000000000000001</v>
@@ -23446,7 +23758,7 @@
         <v>713.27</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -23490,7 +23802,7 @@
         <v>4.07</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -23528,13 +23840,13 @@
         <v>2</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" s="7">
         <v>4.0199999999999996</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -23575,7 +23887,7 @@
         <v>17</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -23619,7 +23931,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -23660,7 +23972,7 @@
         <v>22</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -23736,7 +24048,7 @@
         <v>17</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -23777,7 +24089,7 @@
         <v>17</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -23818,7 +24130,7 @@
         <v>19</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -23852,9 +24164,15 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="9" width="5.83203125" customWidth="1"/>
+    <col min="11" max="13" width="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -23932,7 +24250,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K2" s="7">
         <v>5.3</v>
@@ -23945,7 +24263,7 @@
         <v>6</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="7">
         <v>3.01</v>
@@ -23974,7 +24292,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K3" s="7">
         <v>5.7</v>
@@ -24016,7 +24334,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7">
         <v>4.4000000000000004</v>
@@ -24029,7 +24347,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="7">
         <v>2.87</v>
@@ -24067,7 +24385,7 @@
         <v>3.83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -24093,7 +24411,7 @@
         <v>0.1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K6" s="7">
         <v>4.7</v>
@@ -24132,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7">
         <v>9.5</v>
@@ -24171,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7">
         <v>1.1000000000000001</v>
@@ -24187,7 +24505,7 @@
         <v>3.61</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -24212,6 +24530,9 @@
       <c r="G9" s="7">
         <v>0</v>
       </c>
+      <c r="Q9" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -24235,6 +24556,9 @@
       <c r="G10" s="7">
         <v>0</v>
       </c>
+      <c r="Q10" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -24259,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7">
         <v>1.5</v>
@@ -24277,6 +24601,9 @@
       <c r="P11" s="7">
         <v>712.75</v>
       </c>
+      <c r="Q11" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -24301,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7">
         <v>3.5</v>
@@ -24340,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7">
         <v>3.5</v>
@@ -24379,7 +24706,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7">
         <v>1.6</v>
@@ -24442,6 +24769,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="7"/>
+      <c r="Q16" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -24466,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7">
         <v>0.69</v>
@@ -24481,6 +24811,9 @@
       <c r="O17" s="7">
         <v>2.5099999999999998</v>
       </c>
+      <c r="Q17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -24505,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7">
         <v>3.9</v>
@@ -24518,7 +24851,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -24544,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7">
         <v>4.2</v>
@@ -24586,7 +24919,7 @@
         <v>0.02</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7">
         <v>3.4</v>
@@ -24631,7 +24964,7 @@
         <v>0.26</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K21" s="7">
         <v>3.6</v>
@@ -24650,7 +24983,7 @@
         <v>2.16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -24676,7 +25009,7 @@
         <v>0.53</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7">
         <v>7.2</v>
@@ -24715,7 +25048,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7">
         <v>4.7</v>
@@ -24754,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K24" s="7">
         <v>6.7</v>
@@ -24796,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K25" s="7">
         <v>7.4</v>
@@ -24835,7 +25168,7 @@
         <v>1.05</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K26" s="7">
         <v>1.7</v>
@@ -24880,7 +25213,7 @@
         <v>0.13</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K27" s="7">
         <v>3.5</v>
@@ -24922,7 +25255,7 @@
         <v>0.22</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K28" s="7">
         <v>4.4000000000000004</v>
@@ -24961,7 +25294,7 @@
         <v>0.24</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K29" s="7">
         <v>3.1</v>
@@ -25000,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K30" s="7">
         <v>4.2</v>
@@ -25013,7 +25346,7 @@
         <v>7</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O30" s="7">
         <v>3.84</v>
@@ -25040,6 +25373,9 @@
       </c>
       <c r="G31" s="7">
         <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -25070,9 +25406,16 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -25147,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K2" s="7">
         <v>1.4</v>
@@ -25183,7 +25526,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K3" s="7">
         <v>1.1000000000000001</v>
@@ -25222,7 +25565,7 @@
         <v>0.01</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7">
         <v>3.9</v>
@@ -25261,7 +25604,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7">
         <v>5.9</v>
@@ -25300,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K6" s="7">
         <v>11.3</v>
@@ -25336,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K7" s="7">
         <v>3</v>
@@ -25358,7 +25701,7 @@
         <v>712.92</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -25381,7 +25724,7 @@
         <v>0.31</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7">
         <v>2.9</v>
@@ -25417,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7">
         <v>2.2000000000000002</v>
@@ -25453,7 +25796,7 @@
         <v>0.02</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7">
         <v>2.4</v>
@@ -25489,7 +25832,7 @@
         <v>0.01</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7">
         <v>2.1</v>
@@ -25525,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7">
         <v>3.5</v>
@@ -25542,7 +25885,7 @@
       </c>
       <c r="O12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -25565,7 +25908,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7">
         <v>4.5999999999999996</v>
@@ -25601,7 +25944,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7">
         <v>1</v>
@@ -25637,7 +25980,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K15" s="7">
         <v>2.2999999999999998</v>
@@ -25676,7 +26019,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7">
         <v>5.5</v>
@@ -25715,7 +26058,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7">
         <v>2.4</v>
@@ -25751,7 +26094,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7">
         <v>1.3</v>
@@ -25767,7 +26110,7 @@
         <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -25790,7 +26133,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7">
         <v>4.7</v>
@@ -25829,7 +26172,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7">
         <v>2.7</v>
@@ -25871,7 +26214,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7">
         <v>4.8</v>
@@ -25890,7 +26233,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -25913,7 +26256,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7">
         <v>4.7</v>
@@ -25952,7 +26295,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7">
         <v>10.9</v>
@@ -25985,7 +26328,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K24" s="7">
         <v>3.9</v>
@@ -26021,7 +26364,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7">
         <v>3.4</v>
@@ -26040,7 +26383,7 @@
         <v>1.31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -26063,7 +26406,7 @@
         <v>0.65</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K26" s="7">
         <v>5.5</v>
@@ -26102,6 +26445,9 @@
         <v>0.09</v>
       </c>
       <c r="L27" s="20"/>
+      <c r="Q27" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -26123,7 +26469,7 @@
         <v>0.02</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K28" s="7">
         <v>4.5</v>
@@ -26142,7 +26488,7 @@
         <v>3.7</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -26161,6 +26507,9 @@
       <c r="F29" s="7">
         <v>0.51</v>
       </c>
+      <c r="Q29" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -26181,6 +26530,9 @@
       <c r="F30" s="7">
         <v>1</v>
       </c>
+      <c r="Q30" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -26201,6 +26553,9 @@
       <c r="F31" s="7">
         <v>0.06</v>
       </c>
+      <c r="Q31" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -26222,7 +26577,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K32" s="7">
         <v>4.9000000000000004</v>
@@ -26241,7 +26596,7 @@
         <v>712.77</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -26256,11 +26611,11 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26341,7 +26696,7 @@
         <v>0.09</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K2" s="7">
         <v>5</v>
@@ -26354,7 +26709,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="7">
         <v>2.71</v>
@@ -26383,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K3" s="7">
         <v>4.9000000000000004</v>
@@ -26396,7 +26751,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3" s="7">
         <v>2.4700000000000002</v>
@@ -26425,7 +26780,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7">
         <v>2.8</v>
@@ -26438,13 +26793,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="7">
         <v>2.21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -26470,7 +26825,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7">
         <v>1.3</v>
@@ -26512,7 +26867,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K6" s="7">
         <v>4.0999999999999996</v>
@@ -26554,7 +26909,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7">
         <v>7.7</v>
@@ -26591,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7">
         <v>3.6</v>
@@ -26625,6 +26980,9 @@
         <v>0</v>
       </c>
       <c r="L9" s="20"/>
+      <c r="Q9" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -26649,7 +27007,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7">
         <v>6</v>
@@ -26671,7 +27029,7 @@
         <v>713.23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -26697,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7">
         <v>4.5999999999999996</v>
@@ -26736,7 +27094,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K12" s="7">
         <v>3.3</v>
@@ -26749,13 +27107,13 @@
         <v>2</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="7">
         <v>1.4</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -26781,7 +27139,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7">
         <v>2.2000000000000002</v>
@@ -26820,7 +27178,7 @@
         <v>1.07</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7">
         <v>5.6</v>
@@ -26839,7 +27197,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -26865,7 +27223,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K15" s="7">
         <v>1</v>
@@ -26878,7 +27236,7 @@
         <v>7</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="7">
         <v>3.58</v>
@@ -26887,7 +27245,7 @@
         <v>713.2</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -26914,7 +27272,7 @@
       </c>
       <c r="L16" s="20"/>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -26940,7 +27298,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7">
         <v>1.8</v>
@@ -26956,7 +27314,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -26982,7 +27340,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="K18" s="7">
         <v>6.3</v>
@@ -26995,7 +27353,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" s="7">
         <v>2.88</v>
@@ -27024,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7">
         <v>3.5</v>
@@ -27063,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7">
         <v>2.7</v>
@@ -27076,7 +27434,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O20" s="7">
         <v>2.44</v>
@@ -27108,7 +27466,7 @@
         <v>0.09</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7">
         <v>3.7</v>
@@ -27150,7 +27508,7 @@
         <v>0.27</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7">
         <v>7.7</v>
@@ -27169,7 +27527,7 @@
         <v>2.17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -27195,7 +27553,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7">
         <v>5.4</v>
@@ -27237,7 +27595,7 @@
         <v>0.02</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7">
         <v>3.3</v>
@@ -27279,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7">
         <v>6.2</v>
@@ -27292,7 +27650,7 @@
         <v>6</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O25" s="7">
         <v>2.25</v>
@@ -27321,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7">
         <v>1.2</v>
@@ -27360,13 +27718,13 @@
         <v>8</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O27" s="7">
         <v>2.08</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -27402,7 +27760,7 @@
         <v>1.95</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -27428,6 +27786,9 @@
         <v>0</v>
       </c>
       <c r="J29" s="26"/>
+      <c r="Q29" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -27451,6 +27812,9 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
+      <c r="Q30" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -27474,6 +27838,9 @@
       <c r="G31" s="7">
         <v>0</v>
       </c>
+      <c r="Q31" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -27483,7 +27850,7 @@
         <v>0.33541666666666664</v>
       </c>
       <c r="C32" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="5">
         <v>60</v>
@@ -27498,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K32" s="7">
         <v>1</v>
@@ -27517,7 +27884,7 @@
         <v>712.99</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="15:15" x14ac:dyDescent="0.2">
@@ -27540,14 +27907,21 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -27667,6 +28041,9 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
+      <c r="Q4" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -27693,6 +28070,9 @@
       <c r="N5" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="Q5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -27746,7 +28126,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="7">
         <v>2.41</v>
@@ -27804,7 +28184,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="7">
         <v>2.04</v>
@@ -27829,6 +28209,9 @@
       <c r="F10" s="7">
         <v>0</v>
       </c>
+      <c r="Q10" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -27849,6 +28232,9 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
+      <c r="Q11" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -27875,6 +28261,9 @@
       <c r="O12" s="7">
         <v>1.36</v>
       </c>
+      <c r="Q12" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -27899,13 +28288,13 @@
         <v>3</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="7">
         <v>1.1100000000000001</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -27931,13 +28320,13 @@
         <v>7</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="7">
         <v>2.54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -27989,7 +28378,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O16" s="7">
         <v>2.15</v>
@@ -28018,7 +28407,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="7">
         <v>2</v>
@@ -28043,6 +28432,9 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
+      <c r="Q18" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -28063,6 +28455,9 @@
       <c r="F19" s="7">
         <v>0.39</v>
       </c>
+      <c r="Q19" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -28092,7 +28487,9 @@
       <c r="O20" s="7">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="7" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -28117,7 +28514,7 @@
         <v>5</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O21" s="7">
         <v>1.89</v>
@@ -28146,7 +28543,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O22" s="7">
         <v>1.67</v>
@@ -28192,7 +28589,7 @@
         <v>0.04</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="K24" s="7">
         <v>5.7</v>
@@ -28231,7 +28628,7 @@
         <v>0.33</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K25" s="7">
         <v>6.4</v>
@@ -28270,7 +28667,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7">
         <v>6</v>
@@ -28306,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K27" s="7">
         <v>6.4</v>
@@ -28319,7 +28716,7 @@
         <v>7</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O27" s="7">
         <v>1.27</v>
@@ -28345,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7">
         <v>2.5</v>
@@ -28387,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K29" s="7">
         <v>3</v>
@@ -28400,13 +28797,13 @@
         <v>1</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" s="7">
         <v>0.91</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -28429,6 +28826,9 @@
         <v>0</v>
       </c>
       <c r="L30" s="20"/>
+      <c r="Q30" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -28450,7 +28850,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K31" s="7">
         <v>5.8</v>
@@ -28463,12 +28863,14 @@
         <v>3</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O31" s="7">
         <v>2.95</v>
       </c>
-      <c r="Q31" s="7"/>
+      <c r="Q31" s="7" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -28495,10 +28897,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="1.5" customWidth="1"/>
+    <col min="11" max="11" width="2.5" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -28576,13 +28985,13 @@
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="7">
         <v>1.41</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -28617,7 +29026,7 @@
         <v>714.45</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -28681,7 +29090,7 @@
         <v>714.8</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -28745,7 +29154,7 @@
         <v>714.93</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -28797,7 +29206,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O9" s="7">
         <v>3.2</v>
@@ -28884,7 +29293,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O12" s="7">
         <v>3.17</v>
@@ -28893,7 +29302,7 @@
         <v>714.82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -28939,6 +29348,9 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
+      <c r="Q14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -28968,6 +29380,9 @@
       <c r="O15" s="7">
         <v>2.66</v>
       </c>
+      <c r="Q15" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -28992,7 +29407,7 @@
         <v>7</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -29043,6 +29458,9 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
+      <c r="Q18" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -29122,7 +29540,7 @@
         <v>4</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O21" s="7">
         <v>1.91</v>
@@ -29151,7 +29569,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O22" s="7">
         <v>1.73</v>
@@ -29183,7 +29601,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O23" s="7">
         <v>1.57</v>
@@ -29212,7 +29630,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O24" s="7">
         <v>1.33</v>
@@ -29273,7 +29691,7 @@
         <v>1.08</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -29296,7 +29714,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O27" s="7">
         <v>3.2</v>
@@ -29322,7 +29740,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" s="7">
         <v>2.99</v>
@@ -29380,7 +29798,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O30" s="7">
         <v>2.5099999999999998</v>
@@ -29406,7 +29824,7 @@
         <v>4</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O31" s="7">
         <v>2.2400000000000002</v>
@@ -29453,10 +29871,18 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="10" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
     <col min="17" max="17" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29541,6 +29967,9 @@
       <c r="I2" s="7">
         <v>8.75</v>
       </c>
+      <c r="Q2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -29574,7 +30003,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -29679,13 +30108,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" s="7">
         <v>713.84</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -29748,6 +30177,9 @@
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="Q8" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -29774,6 +30206,9 @@
       <c r="H9" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="Q9" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -29809,6 +30244,9 @@
       <c r="N10" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="Q10" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -29842,7 +30280,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -29915,7 +30353,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -30026,7 +30464,7 @@
         <v>713.96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -30064,7 +30502,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -30233,7 +30671,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -30338,7 +30776,7 @@
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -30549,7 +30987,9 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -30734,7 +31174,7 @@
         <v>9</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -30766,7 +31206,7 @@
         <v>9</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -30804,7 +31244,7 @@
         <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -30871,7 +31311,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -30909,7 +31349,7 @@
         <v>713.78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -31040,7 +31480,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -31171,7 +31611,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -31293,7 +31733,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -31360,7 +31800,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -31578,7 +32018,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -31726,7 +32166,7 @@
         <v>22</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -31764,7 +32204,7 @@
         <v>17</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -31802,7 +32242,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -31840,7 +32280,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -31878,7 +32318,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -31916,7 +32356,7 @@
         <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -31954,7 +32394,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -31986,7 +32426,7 @@
         <v>14.5</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -32018,7 +32458,7 @@
         <v>14.5</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -32050,7 +32490,7 @@
         <v>14.5</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -32082,7 +32522,7 @@
         <v>14.5</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -32114,7 +32554,7 @@
         <v>15.75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -32146,7 +32586,7 @@
         <v>15.25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -32175,7 +32615,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -32204,7 +32644,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -32233,7 +32673,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -32262,7 +32702,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -32291,7 +32731,7 @@
         <v>0.5</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -32320,7 +32760,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -32352,7 +32792,7 @@
         <v>10.5</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -32375,13 +32815,13 @@
         <v>0.08</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -32404,13 +32844,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -32433,13 +32873,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -32462,13 +32902,13 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -32491,13 +32931,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -32520,7 +32960,7 @@
         <v>0.4</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -32529,7 +32969,7 @@
         <v>9.5</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -32552,7 +32992,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -32561,7 +33001,7 @@
         <v>9.5</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -32584,7 +33024,7 @@
         <v>0.12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -32717,7 +33157,7 @@
         <v>10.5</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -32749,7 +33189,7 @@
         <v>10</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -32790,7 +33230,7 @@
         <v>713.91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -32828,7 +33268,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -32930,7 +33370,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -32971,7 +33411,7 @@
         <v>713.85</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -33080,7 +33520,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -33118,7 +33558,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -33156,7 +33596,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -33188,7 +33628,7 @@
         <v>5.25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -33229,7 +33669,7 @@
         <v>713.84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -33439,7 +33879,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -33477,7 +33917,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -33617,7 +34057,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -33810,11 +34250,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="16" width="3.33203125" customWidth="1"/>
     <col min="17" max="17" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33896,6 +34337,9 @@
       <c r="I2" s="7">
         <v>17</v>
       </c>
+      <c r="Q2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -33928,6 +34372,9 @@
       <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="Q3" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -34062,6 +34509,9 @@
       <c r="I7" s="7">
         <v>18</v>
       </c>
+      <c r="J7" t="s">
+        <v>281</v>
+      </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
@@ -34383,6 +34833,9 @@
         <v>0</v>
       </c>
       <c r="G16" s="9"/>
+      <c r="Q16" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -34404,6 +34857,9 @@
         <v>0</v>
       </c>
       <c r="G17" s="9"/>
+      <c r="Q17" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -34431,6 +34887,9 @@
       <c r="I18" s="7">
         <v>11</v>
       </c>
+      <c r="J18" t="s">
+        <v>266</v>
+      </c>
       <c r="M18" s="7">
         <v>6</v>
       </c>
@@ -34441,7 +34900,7 @@
         <v>714</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -34536,6 +34995,9 @@
       <c r="I21" s="7">
         <v>9</v>
       </c>
+      <c r="J21" t="s">
+        <v>266</v>
+      </c>
       <c r="M21" s="7">
         <v>8</v>
       </c>
@@ -34543,7 +35005,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -34576,7 +35038,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>18</v>
@@ -34611,7 +35073,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>18</v>
@@ -34757,7 +35219,7 @@
         <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -34792,7 +35254,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -34827,7 +35289,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -34862,7 +35324,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -34890,6 +35352,9 @@
       <c r="I31" s="7">
         <v>0</v>
       </c>
+      <c r="J31" t="s">
+        <v>162</v>
+      </c>
       <c r="M31" s="7">
         <v>8</v>
       </c>
@@ -34897,7 +35362,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -34925,6 +35390,9 @@
       <c r="I32" s="7">
         <v>0</v>
       </c>
+      <c r="J32" t="s">
+        <v>281</v>
+      </c>
       <c r="M32" s="7">
         <v>8</v>
       </c>
@@ -34935,7 +35403,7 @@
         <v>714.46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -34996,7 +35464,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -35011,7 +35479,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="11">
         <f>SUM(F2:F30)</f>
@@ -35036,7 +35504,7 @@
     </row>
     <row r="906" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I906" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -35169,7 +35637,7 @@
         <v>17</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -35201,7 +35669,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -35239,7 +35707,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -35277,7 +35745,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -35315,7 +35783,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -35353,7 +35821,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -35392,7 +35860,7 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -35433,7 +35901,7 @@
         <v>713.97</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -35459,7 +35927,7 @@
         <v>0.02</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -35485,7 +35953,7 @@
         <v>0.02</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -35523,7 +35991,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -35561,7 +36029,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -35599,7 +36067,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -35640,7 +36108,7 @@
         <v>713.99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -35678,7 +36146,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -35716,7 +36184,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -35757,7 +36225,7 @@
         <v>713.98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -35795,7 +36263,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -35932,7 +36400,7 @@
         <v>7.5</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -35964,7 +36432,7 @@
         <v>9</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -35993,7 +36461,7 @@
         <v>0.5</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -36022,7 +36490,7 @@
         <v>4</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -36057,7 +36525,7 @@
         <v>713.95</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -36095,7 +36563,7 @@
         <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -36197,7 +36665,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -36229,7 +36697,7 @@
         <v>10.5</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -36354,7 +36822,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K2" s="7">
         <v>8</v>
@@ -36373,7 +36841,7 @@
         <v>2.36</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -36405,7 +36873,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K3" s="7">
         <v>5.5</v>
@@ -36421,7 +36889,7 @@
         <v>22</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -36460,7 +36928,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -36492,7 +36960,7 @@
         <v>2.5</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7">
         <v>2.2000000000000002</v>
@@ -36511,7 +36979,7 @@
         <v>713.24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -36552,7 +37020,7 @@
         <v>2.78</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -36624,10 +37092,10 @@
         <v>2</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -36662,7 +37130,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -36694,7 +37162,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -36756,7 +37224,7 @@
         <v>3</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -36788,7 +37256,7 @@
         <v>3.5</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -36820,7 +37288,7 @@
         <v>3.5</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -36855,7 +37323,7 @@
         <v>713.34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -36893,7 +37361,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -36931,7 +37399,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -37040,7 +37508,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -37113,7 +37581,7 @@
         <v>6</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -37144,7 +37612,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -37176,7 +37644,7 @@
         <v>0.25</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -37208,7 +37676,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -37240,7 +37708,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -37272,7 +37740,7 @@
         <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -37310,7 +37778,7 @@
         <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -37415,7 +37883,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" s="7">
         <v>713.74</v>
@@ -37522,34 +37990,34 @@
       <c r="S1" s="29"/>
       <c r="T1" s="29"/>
       <c r="U1" s="29" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="V1" s="29" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="W1" s="29" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="X1" s="29" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="Y1" s="29" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Z1" s="29" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="AC1" s="29" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="AD1" s="29" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -37580,7 +38048,7 @@
       </c>
       <c r="L2" s="34"/>
       <c r="Q2" s="35" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -37610,7 +38078,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K3" s="35">
         <v>5.9</v>
@@ -37629,7 +38097,7 @@
         <v>1.29</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -37661,7 +38129,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K4" s="35">
         <v>4.2</v>
@@ -37712,7 +38180,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="K5" s="35">
         <v>6.9</v>
@@ -37760,7 +38228,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K6" s="35">
         <v>2.7</v>
@@ -37773,7 +38241,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6" s="35">
         <v>1.24</v>
@@ -37808,7 +38276,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7">
         <v>1.5</v>
@@ -37827,7 +38295,7 @@
         <v>1.17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
@@ -37863,7 +38331,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7">
         <v>8.6</v>
@@ -37911,7 +38379,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7">
         <v>2</v>
@@ -37956,7 +38424,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7">
         <v>0.4</v>
@@ -38004,7 +38472,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7">
         <v>9.1</v>
@@ -38052,7 +38520,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7">
         <v>5.4</v>
@@ -38100,7 +38568,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7">
         <v>0.4</v>
@@ -38148,7 +38616,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7">
         <v>3.7</v>
@@ -38259,7 +38727,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7">
         <v>4.4000000000000004</v>
@@ -38275,7 +38743,7 @@
         <v>4.21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -38307,7 +38775,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7">
         <v>9.4</v>
@@ -38320,13 +38788,13 @@
         <v>1</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O18" s="7">
         <v>4.1900000000000004</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -38358,7 +38826,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7">
         <v>5.3</v>
@@ -38403,7 +38871,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7">
         <v>4.2</v>
@@ -38416,7 +38884,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O20" s="7">
         <v>2.35</v>
@@ -38451,7 +38919,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K21" s="7">
         <v>2.6</v>
@@ -38502,7 +38970,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7">
         <v>3.1</v>
@@ -38548,7 +39016,7 @@
       </c>
       <c r="L23" s="34"/>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -38580,7 +39048,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K24" s="7">
         <v>2.4</v>
@@ -38628,7 +39096,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7">
         <v>12.1</v>
@@ -38647,7 +39115,7 @@
         <v>4.42</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -38679,7 +39147,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="K26" s="7">
         <v>6.4</v>
@@ -38724,7 +39192,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K27" s="7">
         <v>1.1000000000000001</v>
@@ -38746,7 +39214,7 @@
         <v>712.94</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -38778,7 +39246,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7">
         <v>9.3000000000000007</v>
@@ -38826,7 +39294,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K29" s="7">
         <v>1.1000000000000001</v>
@@ -38839,7 +39307,7 @@
         <v>1.94</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -38875,10 +39343,10 @@
         <v>3</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -38910,7 +39378,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K31" s="7">
         <v>1.8</v>
@@ -38926,7 +39394,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -38958,7 +39426,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K32" s="7">
         <v>5.6</v>
@@ -38967,14 +39435,14 @@
         <v>3</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O32" s="7">
         <v>2.3199999999999998</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.2">
@@ -38994,7 +39462,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39005,18 +39473,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -39033,11 +39501,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="16" width="3" customWidth="1"/>
     <col min="17" max="17" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39126,7 +39597,7 @@
         <v>23</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -39161,7 +39632,7 @@
         <v>22</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -39196,7 +39667,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -39234,7 +39705,7 @@
         <v>714.13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -39333,6 +39804,9 @@
       <c r="I8" s="7">
         <v>15</v>
       </c>
+      <c r="Q8" s="7" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -39360,6 +39834,9 @@
       <c r="I9" s="7">
         <v>15</v>
       </c>
+      <c r="Q9" s="7" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -39387,6 +39864,9 @@
       <c r="I10" s="7">
         <v>15</v>
       </c>
+      <c r="Q10" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -39421,7 +39901,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -39490,7 +39970,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>20</v>
@@ -39566,7 +40046,7 @@
         <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -39632,7 +40112,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -39704,7 +40184,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -39737,7 +40217,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7">
         <v>714</v>
@@ -39770,7 +40250,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -39797,7 +40277,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -39823,7 +40303,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -39849,7 +40329,7 @@
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -39875,7 +40355,7 @@
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -39907,7 +40387,7 @@
         <v>713.91</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -39970,6 +40450,9 @@
       <c r="I28" s="7">
         <v>17</v>
       </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
       <c r="M28" s="7">
         <v>8</v>
       </c>
@@ -39977,7 +40460,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -40006,7 +40489,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -40033,6 +40516,9 @@
       </c>
       <c r="I30" s="7">
         <v>18</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -40066,7 +40552,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="11">
         <f>SUM(F2:F32)</f>
@@ -40087,7 +40573,7 @@
     </row>
     <row r="906" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I906" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -40105,10 +40591,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="15" width="2.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -40188,6 +40677,9 @@
       <c r="I2" s="7">
         <v>13</v>
       </c>
+      <c r="Q2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -40214,6 +40706,9 @@
       <c r="I3" s="7">
         <v>12</v>
       </c>
+      <c r="Q3" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -40240,6 +40735,9 @@
       <c r="I4" s="7">
         <v>10</v>
       </c>
+      <c r="Q4" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -40325,10 +40823,10 @@
         <v>7</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -40400,7 +40898,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -40436,7 +40934,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -40472,7 +40970,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -40508,7 +41006,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -40688,7 +41186,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -40724,7 +41222,7 @@
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -40760,7 +41258,7 @@
         <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -40796,7 +41294,7 @@
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -40832,7 +41330,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -40868,7 +41366,7 @@
         <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -40906,7 +41404,7 @@
         <v>714.26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -40976,7 +41474,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -40999,7 +41497,7 @@
         <v>0.1</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" s="7">
         <v>15</v>
@@ -41011,7 +41509,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -41046,7 +41544,7 @@
         <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -41081,7 +41579,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -41224,7 +41722,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -41245,7 +41743,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="11">
         <f>SUM(F2:F32)</f>
@@ -41266,7 +41764,7 @@
     </row>
     <row r="906" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I906" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -41290,10 +41788,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="15" width="3.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -41383,7 +41884,7 @@
         <v>22</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -41418,10 +41919,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -41462,7 +41963,7 @@
         <v>714</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -41500,7 +42001,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -41538,7 +42039,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -41576,7 +42077,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -41614,7 +42115,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -41645,6 +42146,9 @@
       <c r="I9" s="7">
         <v>6</v>
       </c>
+      <c r="Q9" s="7" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -41681,7 +42185,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -41716,10 +42220,10 @@
         <v>2</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -41757,7 +42261,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -41795,7 +42299,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -41833,7 +42337,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -41871,7 +42375,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -41909,7 +42413,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -41947,7 +42451,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -41978,6 +42482,9 @@
       <c r="I18" s="7">
         <v>10</v>
       </c>
+      <c r="Q18" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -42007,6 +42514,9 @@
       <c r="I19" s="7">
         <v>10</v>
       </c>
+      <c r="Q19" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -42036,6 +42546,9 @@
       <c r="I20" s="7">
         <v>9</v>
       </c>
+      <c r="Q20" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -42065,6 +42578,9 @@
       <c r="I21" s="7">
         <v>9</v>
       </c>
+      <c r="Q21" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -42094,6 +42610,9 @@
       <c r="I22" s="7">
         <v>9</v>
       </c>
+      <c r="Q22" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -42123,6 +42642,9 @@
       <c r="I23" s="7">
         <v>9</v>
       </c>
+      <c r="Q23" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -42152,6 +42674,9 @@
       <c r="I24" s="7">
         <v>9</v>
       </c>
+      <c r="Q24" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -42181,6 +42706,9 @@
       <c r="I25" s="7">
         <v>9</v>
       </c>
+      <c r="Q25" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -42210,6 +42738,9 @@
       <c r="I26" s="7">
         <v>8</v>
       </c>
+      <c r="Q26" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -42239,6 +42770,9 @@
       <c r="I27" s="7">
         <v>7</v>
       </c>
+      <c r="Q27" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -42268,6 +42802,9 @@
       <c r="I28" s="7">
         <v>6</v>
       </c>
+      <c r="Q28" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -42297,6 +42834,9 @@
       <c r="I29" s="7">
         <v>6</v>
       </c>
+      <c r="Q29" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -42326,6 +42866,9 @@
       <c r="I30" s="7">
         <v>5</v>
       </c>
+      <c r="Q30" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -42355,6 +42898,9 @@
       <c r="I31" s="7">
         <v>4</v>
       </c>
+      <c r="Q31" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -42384,6 +42930,9 @@
       <c r="I32" s="7">
         <v>13</v>
       </c>
+      <c r="Q32" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -42399,7 +42948,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <f t="shared" ref="F38:G38" si="0">SUM(F2:F32)</f>
@@ -42412,7 +42961,7 @@
     </row>
     <row r="906" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I906" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -42428,10 +42977,16 @@
   <dimension ref="A1:Q936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="16" width="5.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -42521,7 +43076,7 @@
         <v>19</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -42562,7 +43117,7 @@
         <v>713.58</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -42600,7 +43155,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -42638,7 +43193,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -42677,7 +43232,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -42716,7 +43271,7 @@
         <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -42754,7 +43309,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -42793,7 +43348,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -42831,7 +43386,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -42870,7 +43425,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -42909,7 +43464,7 @@
         <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -42945,10 +43500,10 @@
         <v>2</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -42989,7 +43544,7 @@
         <v>713.68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -43028,7 +43583,7 @@
         <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -43066,7 +43621,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -43092,7 +43647,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -43117,6 +43672,9 @@
       <c r="G18" s="7">
         <v>0</v>
       </c>
+      <c r="Q18" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -43140,6 +43698,9 @@
       <c r="G19" s="7">
         <v>0.01</v>
       </c>
+      <c r="Q19" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -43176,7 +43737,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -43217,7 +43778,7 @@
         <v>713.64</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -43248,6 +43809,9 @@
       <c r="I22" s="7">
         <v>0</v>
       </c>
+      <c r="Q22" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -43284,7 +43848,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -43322,7 +43886,7 @@
         <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -43357,10 +43921,10 @@
         <v>2</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -43436,7 +44000,7 @@
         <v>713.72</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -43474,7 +44038,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -43509,10 +44073,10 @@
         <v>2</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -43537,6 +44101,9 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
+      <c r="Q30" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -43566,6 +44133,9 @@
       <c r="I31" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="Q31" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -43581,7 +44151,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <f t="shared" ref="F37:G37" si="0">SUM(F2:F32)</f>
@@ -43597,7 +44167,7 @@
     </row>
     <row r="936" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I936" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -43612,9 +44182,14 @@
   </sheetPr>
   <dimension ref="A1:Q936"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="16" width="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -43714,7 +44289,7 @@
         <v>713.06</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -43798,7 +44373,7 @@
         <v>2.66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -43837,7 +44412,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" s="7">
         <v>2.84</v>
@@ -43921,7 +44496,7 @@
         <v>7</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -43946,6 +44521,9 @@
       <c r="G8" s="7">
         <v>0.02</v>
       </c>
+      <c r="Q8" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -43983,12 +44561,15 @@
         <v>1</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7">
         <v>713</v>
       </c>
+      <c r="Q9" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -44013,7 +44594,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O10" s="7">
         <v>2.69</v>
@@ -44055,7 +44636,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O11" s="7">
         <v>2.61</v>
@@ -44136,7 +44717,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -44161,6 +44742,9 @@
       <c r="G14" s="7">
         <v>0.6</v>
       </c>
+      <c r="Q14" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -44198,13 +44782,13 @@
         <v>6</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="7">
         <v>3.81</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>146</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -44268,7 +44852,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -44293,6 +44877,9 @@
       <c r="G18" s="7">
         <v>0</v>
       </c>
+      <c r="Q18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -44316,6 +44903,9 @@
       <c r="G19" s="7">
         <v>0</v>
       </c>
+      <c r="Q19" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -44339,6 +44929,9 @@
       <c r="G20" s="7">
         <v>0</v>
       </c>
+      <c r="Q20" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -44362,6 +44955,9 @@
       <c r="G21" s="7">
         <v>0.02</v>
       </c>
+      <c r="Q21" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -44385,6 +44981,9 @@
       <c r="G22" s="7">
         <v>0.24</v>
       </c>
+      <c r="Q22" s="38" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -44408,6 +45007,9 @@
       <c r="G23" s="7">
         <v>0.04</v>
       </c>
+      <c r="Q23" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -44431,6 +45033,9 @@
       <c r="G24" s="7">
         <v>0.56000000000000005</v>
       </c>
+      <c r="Q24" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -44454,6 +45059,9 @@
       <c r="G25" s="7">
         <v>0.09</v>
       </c>
+      <c r="Q25" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -44484,7 +45092,7 @@
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -44513,7 +45121,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -44548,7 +45156,7 @@
         <v>713.43</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -44635,7 +45243,7 @@
         <v>23</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -44667,7 +45275,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -44688,7 +45296,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <f t="shared" ref="F37:G37" si="2">SUM(F2:F32)</f>
@@ -44701,7 +45309,7 @@
     </row>
     <row r="936" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I936" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -44716,9 +45324,14 @@
   </sheetPr>
   <dimension ref="A1:Q963"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="12" width="3.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -44795,6 +45408,9 @@
       <c r="G2" s="7">
         <v>0</v>
       </c>
+      <c r="Q2" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -44818,6 +45434,9 @@
       <c r="G3" s="7">
         <v>0</v>
       </c>
+      <c r="Q3" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -44861,7 +45480,7 @@
         <v>2.87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -44890,7 +45509,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" s="7">
         <v>2.83</v>
@@ -44977,7 +45596,7 @@
         <v>2.66</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -45002,6 +45621,9 @@
       <c r="G8" s="7">
         <v>0.01</v>
       </c>
+      <c r="Q8" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -45025,6 +45647,9 @@
       <c r="G9" s="7">
         <v>0</v>
       </c>
+      <c r="Q9" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -45065,7 +45690,7 @@
         <v>2.56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -45113,7 +45738,7 @@
         <v>712.93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -45222,6 +45847,9 @@
       <c r="G14" s="7">
         <v>0.14000000000000001</v>
       </c>
+      <c r="Q14" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -45245,6 +45873,9 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
+      <c r="Q15" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -45268,6 +45899,9 @@
       <c r="G16" s="7">
         <v>0.48</v>
       </c>
+      <c r="Q16" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -45291,6 +45925,9 @@
       <c r="G17" s="7">
         <v>0.11</v>
       </c>
+      <c r="Q17" s="38" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -45337,7 +45974,7 @@
         <v>712.92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>158</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -45376,7 +46013,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -45483,7 +46120,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O22" s="7">
         <v>3.06</v>
@@ -45511,6 +46148,9 @@
       <c r="G23" s="7">
         <v>0.91</v>
       </c>
+      <c r="Q23" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -45548,13 +46188,13 @@
         <v>7</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O24" s="7">
         <v>3.9</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -45602,7 +46242,7 @@
         <v>713</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -45647,7 +46287,7 @@
         <v>3.97</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -45686,7 +46326,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O27" s="7">
         <v>3.12</v>
@@ -45756,6 +46396,9 @@
       <c r="G29" s="7">
         <v>0</v>
       </c>
+      <c r="Q29" s="7" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -45779,6 +46422,9 @@
       <c r="G30" s="7">
         <v>0.01</v>
       </c>
+      <c r="Q30" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -45820,6 +46466,9 @@
       </c>
       <c r="O31" s="7">
         <v>3.39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.2">
@@ -45834,7 +46483,7 @@
     </row>
     <row r="963" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I963" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
